--- a/frontend/modules/reports/modules/lab/templates/CHEM_NONISO.xlsx
+++ b/frontend/modules/reports/modules/lab/templates/CHEM_NONISO.xlsx
@@ -18,35 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
-    <r>
-      <t xml:space="preserve">                                                                             </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">       Republic of the Philippines</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Regional Standards and Testing Laboratories </t>
-    </r>
-  </si>
-  <si>
     <t>Pettit Barracks, Zamboanga City</t>
   </si>
   <si>
@@ -153,12 +124,41 @@
   <si>
     <t xml:space="preserve">                     </t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Republic of the Philippines</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Regional Standards and Testing Laboratories </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,13 +194,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3" tint="0.39997558519241921"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -225,6 +218,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -373,15 +385,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -396,7 +408,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -409,7 +421,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,20 +465,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -476,10 +493,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -626,6 +639,97 @@
         <a:xfrm flipV="1">
           <a:off x="0" y="940148"/>
           <a:ext cx="6702950" cy="145702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1244690</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>87983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="C:\Users\JTF\Documents\Files\Logo DOST (Cyan).png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="736600" y="76200"/>
+          <a:ext cx="717640" cy="722983"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>67734</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="88900" y="158750"/>
+          <a:ext cx="603250" cy="442384"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -927,7 +1031,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -939,13 +1043,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -954,13 +1058,13 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -969,13 +1073,13 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -984,13 +1088,13 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="A4" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -999,13 +1103,13 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="A5" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -1014,11 +1118,11 @@
       <c r="K5" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="43"/>
+      <c r="B7" s="35"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="10"/>
@@ -1030,7 +1134,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="10"/>
@@ -1043,7 +1147,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="10"/>
@@ -1055,7 +1159,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="10"/>
@@ -1067,7 +1171,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="24"/>
@@ -1085,13 +1189,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="44" t="str">
+        <v>21</v>
+      </c>
+      <c r="C14" s="45" t="str">
         <f>UPPER(B7)</f>
         <v/>
       </c>
-      <c r="D14" s="44"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -1100,7 +1204,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" s="25"/>
-      <c r="C15" s="42"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1109,13 +1213,13 @@
       <c r="D16" s="25"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
+      <c r="A17" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -1132,13 +1236,13 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="25"/>
       <c r="B19" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>5</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>7</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -1163,11 +1267,11 @@
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
-      <c r="B21" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
+      <c r="B21" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
@@ -1178,7 +1282,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B22" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -1191,13 +1295,13 @@
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
+      <c r="A23" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -1207,7 +1311,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1221,26 +1325,26 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
+      <c r="A25" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D28" s="21"/>
     </row>
@@ -1250,28 +1354,28 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B30" s="27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1288,21 +1392,21 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1319,7 +1423,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1337,14 +1441,14 @@
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" s="1"/>
       <c r="C43" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="1"/>
       <c r="C44" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D44" s="1"/>
     </row>
@@ -1358,7 +1462,7 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
@@ -1372,14 +1476,17 @@
       <c r="D52" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/frontend/modules/reports/modules/lab/templates/CHEM_NONISO.xlsx
+++ b/frontend/modules/reports/modules/lab/templates/CHEM_NONISO.xlsx
@@ -18,6 +18,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
+    <r>
+      <t xml:space="preserve">                                                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">       Republic of the Philippines</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Regional Standards and Testing Laboratories </t>
+    </r>
+  </si>
+  <si>
     <t>Pettit Barracks, Zamboanga City</t>
   </si>
   <si>
@@ -124,41 +153,12 @@
   <si>
     <t xml:space="preserve">                     </t>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                                          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Republic of the Philippines</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Regional Standards and Testing Laboratories </t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +194,13 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -218,25 +225,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3" tint="0.39997558519241921"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -385,15 +373,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -408,7 +396,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -421,7 +409,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,34 +453,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -639,97 +626,6 @@
         <a:xfrm flipV="1">
           <a:off x="0" y="940148"/>
           <a:ext cx="6702950" cy="145702"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1244690</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>87983</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="C:\Users\JTF\Documents\Files\Logo DOST (Cyan).png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="736600" y="76200"/>
-          <a:ext cx="717640" cy="722983"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>67734</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="88900" y="158750"/>
-          <a:ext cx="603250" cy="442384"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1031,7 +927,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1043,13 +939,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1058,13 +954,13 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="A2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1073,13 +969,13 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -1088,13 +984,13 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="A4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -1103,13 +999,13 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
+      <c r="A5" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -1118,11 +1014,11 @@
       <c r="K5" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="35"/>
+      <c r="B7" s="43"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="10"/>
@@ -1134,7 +1030,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="10"/>
@@ -1147,7 +1043,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="10"/>
@@ -1159,7 +1055,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="10"/>
@@ -1171,7 +1067,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="24"/>
@@ -1189,13 +1085,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="45" t="str">
+        <v>23</v>
+      </c>
+      <c r="C14" s="44" t="str">
         <f>UPPER(B7)</f>
         <v/>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -1204,7 +1100,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" s="25"/>
-      <c r="C15" s="34"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1213,13 +1109,13 @@
       <c r="D16" s="25"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
+      <c r="A17" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -1236,13 +1132,13 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="25"/>
       <c r="B19" s="28" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -1267,11 +1163,11 @@
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
-      <c r="B21" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
+      <c r="B21" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
@@ -1282,7 +1178,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B22" s="17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -1295,13 +1191,13 @@
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="A23" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -1311,7 +1207,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1325,26 +1221,26 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
+      <c r="A25" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D28" s="21"/>
     </row>
@@ -1354,28 +1250,28 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B30" s="27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1392,21 +1288,21 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1423,7 +1319,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1441,14 +1337,14 @@
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" s="1"/>
       <c r="C43" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="1"/>
       <c r="C44" s="19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D44" s="1"/>
     </row>
@@ -1462,7 +1358,7 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
@@ -1476,17 +1372,14 @@
       <c r="D52" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
+  <mergeCells count="7">
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
